--- a/src/Chapter-4使用python批量处理工作簿表/产品统计表/产品统计表.xlsx
+++ b/src/Chapter-4使用python批量处理工作簿表/产品统计表/产品统计表.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-4使用python批量处理工作簿表\产品统计表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4221FF09-C86C-4305-B1E0-79920261C98F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D3C12E-0D06-4BA1-B635-3D0043F76367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="6660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="背包" sheetId="4" r:id="rId1"/>
+    <sheet name="电车" sheetId="3" r:id="rId2"/>
+    <sheet name="头盔" sheetId="2" r:id="rId3"/>
+    <sheet name="统计表" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +64,33 @@
   <si>
     <t>利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>成本价</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>电车</t>
+  </si>
+  <si>
+    <t>背包</t>
   </si>
 </sst>
 </file>
@@ -400,11 +430,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FFC37-6A1E-48D1-BFBE-85A3E76D26C5}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EB34C1-6747-4B26-B833-104C4E199AA6}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279A582C-EA59-4101-9054-9253A6CD17A9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
